--- a/測定部アナログ部テスト.xlsx
+++ b/測定部アナログ部テスト.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="85">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -268,6 +268,146 @@
   </si>
   <si>
     <t>2014.11.22 #1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>配線変更 2014.11.24</t>
+    <rPh sb="0" eb="2">
+      <t>ハイセン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>絶縁</t>
+    <rPh sb="0" eb="2">
+      <t>ゼツエン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JP1-2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GND</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>導通</t>
+    <rPh sb="0" eb="2">
+      <t>ドウツウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2014.11.24 #1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>11.91kΩ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>9.91kΩ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>9.96kΩ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>11.95kΩ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10.99kΩ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10.00kΩ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0.0Ω</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0.4Ω</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0.0Ω</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0.0Ω</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0.4Ω</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>9.89kΩ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0.988kΩ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0.989kΩ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-2.67V</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.41V</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>正電源</t>
+    <rPh sb="0" eb="1">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>デンゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>負電源</t>
+    <rPh sb="0" eb="3">
+      <t>フデンゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>電源GND</t>
+    <rPh sb="0" eb="2">
+      <t>デンゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>14.08V</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-13.49V</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -301,7 +441,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -311,6 +451,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -372,7 +518,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -398,6 +544,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -701,10 +856,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:I54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1067,6 +1222,415 @@
       </c>
       <c r="F25" s="5" t="s">
         <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A29" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="B31" s="3">
+        <v>1</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B32" s="2">
+        <v>2</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B33" s="2">
+        <v>3</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B34" s="2">
+        <v>4</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B35" s="2">
+        <v>5</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F35" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B36" s="2">
+        <v>6</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B37" s="2">
+        <v>7</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B38" s="2">
+        <v>8</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B39" s="2">
+        <v>9</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="I39" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B40" s="2">
+        <v>10</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B41" s="2">
+        <v>11</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B42" s="2">
+        <v>12</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B43" s="2">
+        <v>13</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B44" s="2">
+        <v>14</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B45" s="2">
+        <v>15</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B46" s="2">
+        <v>16</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B47" s="5">
+        <v>17</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A49" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B50" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="B51" s="3">
+        <v>1</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F51" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B52" s="2">
+        <v>2</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B53" s="2">
+        <v>3</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E53" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B54" s="2">
+        <v>4</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E54" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="F54" s="10" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
